--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2930368.716775471</v>
+        <v>3079945.263314031</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4941423.590712402</v>
+        <v>5215032.039953538</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>354.2060053732699</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -713,16 +715,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>66.86379236488796</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>99.36416800949678</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>53.74383312240877</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -896,22 +898,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>358.0047481074292</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -947,7 +949,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>94.81123871598507</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1063,13 +1065,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1102,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7385887424601</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>31.91071394050292</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1135,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>22.51978202893052</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>124.8991389358905</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>184.6846902698429</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1297,16 +1299,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1342,19 +1344,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>55.7595940588127</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1370,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>396.1684990102575</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1421,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1430,13 +1432,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1537,13 +1539,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>28.3589600793942</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>196.9023380921386</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1607,22 +1609,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>90.38311250720072</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1765,13 +1767,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>91.7878310389731</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1850,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536202</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1907,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2059,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>73.28515221530711</v>
+        <v>207.3556399906651</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2084,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2239,10 +2241,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>79.47996908724016</v>
       </c>
       <c r="D22" t="n">
-        <v>67.11450753650871</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2476,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>126.1395402789647</v>
       </c>
       <c r="I25" t="n">
-        <v>40.84698832683126</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2564,7 +2566,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>117.240370648446</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2725,10 +2727,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2770,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>242.6788593006977</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2849,7 +2851,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -2950,22 +2952,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>119.6878865881519</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>96.66570663391093</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>44.02781544003311</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.7583557696352</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3331,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>113.7310109362424</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3481,7 +3483,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>58.31517967031825</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3661,13 +3663,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>119.6878865881508</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3746,19 +3748,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H41" t="n">
-        <v>216.8714137988382</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3906,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3913,7 +3915,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.9942306771777</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>265.3439815931928</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864477</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T44" t="n">
-        <v>11.78814461228689</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446566</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>134.3894317518284</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>49.65274383947055</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1195.849226997886</v>
+        <v>563.0709252622232</v>
       </c>
       <c r="C2" t="n">
-        <v>768.948497011186</v>
+        <v>540.2105993159274</v>
       </c>
       <c r="D2" t="n">
-        <v>749.6962802365903</v>
+        <v>520.9583825413317</v>
       </c>
       <c r="E2" t="n">
-        <v>727.7597444248519</v>
+        <v>94.98144268918925</v>
       </c>
       <c r="F2" t="n">
-        <v>369.9759006134681</v>
+        <v>73.89766491899356</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6772422433207</v>
+        <v>73.59900654884625</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884625</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>493.6978991635576</v>
+        <v>859.6725812491131</v>
       </c>
       <c r="M2" t="n">
-        <v>950.4838058662885</v>
+        <v>1338.611505491542</v>
       </c>
       <c r="N2" t="n">
-        <v>1407.269712569019</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="O2" t="n">
-        <v>1407.269712569019</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1714.181193660506</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1455.826284256918</v>
       </c>
       <c r="V2" t="n">
-        <v>1624.67405208597</v>
+        <v>1388.287100049961</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.67405208597</v>
+        <v>991.8957503503076</v>
       </c>
       <c r="X2" t="n">
-        <v>1212.954053253717</v>
+        <v>984.2161555584589</v>
       </c>
       <c r="Y2" t="n">
-        <v>1211.657187249012</v>
+        <v>982.9192895537533</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668182</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.036721584323</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.196763099608</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725452</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.8489990554494</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.7952272730534</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.419134035363</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.419134035363</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>126.419134035363</v>
       </c>
       <c r="K3" t="n">
-        <v>475.2419029331441</v>
+        <v>126.419134035363</v>
       </c>
       <c r="L3" t="n">
-        <v>932.027809635875</v>
+        <v>605.3580582777915</v>
       </c>
       <c r="M3" t="n">
-        <v>1388.813716338606</v>
+        <v>977.2289161310157</v>
       </c>
       <c r="N3" t="n">
-        <v>1388.813716338606</v>
+        <v>977.2289161310157</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>1456.167840373444</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177127</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474806</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394442</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533708</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366926</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335886</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.469634486881</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299.9973335937801</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="C4" t="n">
-        <v>299.9973335937801</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="D4" t="n">
-        <v>136.6805607205508</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="E4" t="n">
-        <v>136.6805607205508</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="F4" t="n">
-        <v>136.6805607205508</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>182.4984037841631</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>96.19346351647548</v>
       </c>
       <c r="K4" t="n">
-        <v>36.91199246082674</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>391.6013137552475</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>782.7871087254983</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1160.278619601534</v>
+        <v>1162.079293773447</v>
       </c>
       <c r="O4" t="n">
-        <v>1515.706748281297</v>
+        <v>1517.50742245321</v>
       </c>
       <c r="P4" t="n">
-        <v>1806.305960203198</v>
+        <v>1808.106634375111</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303046</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.933103822181</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1474.593756048081</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1474.593756048081</v>
       </c>
       <c r="V4" t="n">
-        <v>823.1906985818782</v>
+        <v>1192.88228865611</v>
       </c>
       <c r="W4" t="n">
-        <v>768.903998458233</v>
+        <v>918.0298848286229</v>
       </c>
       <c r="X4" t="n">
-        <v>526.3401019040381</v>
+        <v>675.465988274428</v>
       </c>
       <c r="Y4" t="n">
-        <v>299.9973335937801</v>
+        <v>449.1232199641701</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>859.1491609566976</v>
+        <v>1738.270122414086</v>
       </c>
       <c r="C5" t="n">
-        <v>836.2888350104018</v>
+        <v>1311.369392427386</v>
       </c>
       <c r="D5" t="n">
-        <v>817.0366182358061</v>
+        <v>888.0767716123864</v>
       </c>
       <c r="E5" t="n">
-        <v>391.0596783836638</v>
+        <v>866.140235800648</v>
       </c>
       <c r="F5" t="n">
-        <v>369.9759006134681</v>
+        <v>441.0160539900482</v>
       </c>
       <c r="G5" t="n">
-        <v>369.6772422433207</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>950.4838058662885</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M5" t="n">
-        <v>1407.269712569019</v>
+        <v>116.829168004879</v>
       </c>
       <c r="N5" t="n">
-        <v>1845.599623041337</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O5" t="n">
-        <v>1845.599623041337</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1645.463400918533</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1645.463400918533</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1287.973986044782</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>1287.973986044782</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X5" t="n">
-        <v>1280.294391252933</v>
+        <v>1755.374948669918</v>
       </c>
       <c r="Y5" t="n">
-        <v>874.9571212078237</v>
+        <v>1754.078082665212</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023296</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>772.8420314050604</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>772.8420314050604</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>1229.627938107791</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1229.627938107791</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>776.25877763854</v>
+        <v>817.6261093758709</v>
       </c>
       <c r="C7" t="n">
-        <v>776.25877763854</v>
+        <v>645.6535462547869</v>
       </c>
       <c r="D7" t="n">
-        <v>612.9420047653107</v>
+        <v>482.3367733815576</v>
       </c>
       <c r="E7" t="n">
-        <v>446.7337989181643</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.22166195441</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1555.22166195441</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1273.510194562439</v>
+        <v>1318.821281513616</v>
       </c>
       <c r="W7" t="n">
-        <v>998.657790734952</v>
+        <v>1043.968877686129</v>
       </c>
       <c r="X7" t="n">
-        <v>966.4247463506056</v>
+        <v>1043.968877686129</v>
       </c>
       <c r="Y7" t="n">
-        <v>966.4247463506056</v>
+        <v>817.6261093758709</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1369.361590511541</v>
+        <v>972.9074190595575</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.501264565245</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D8" t="n">
-        <v>923.2086437502451</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>901.2721079385067</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>476.1479261279069</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>357.6855680512415</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>814.4714747539724</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="L8" t="n">
-        <v>814.4714747539724</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M8" t="n">
-        <v>814.4714747539724</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.257381456703</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="T8" t="n">
-        <v>1520.30675795911</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="U8" t="n">
-        <v>1520.30675795911</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="V8" t="n">
-        <v>1394.146011559221</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="W8" t="n">
-        <v>1394.146011559221</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.466416767372</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y8" t="n">
-        <v>1385.169550762667</v>
+        <v>988.7153793106835</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082674</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>36.91199246082674</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>493.6978991635576</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N9" t="n">
-        <v>932.0278096358747</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>638.1781025620105</v>
+        <v>789.6093675008983</v>
       </c>
       <c r="C10" t="n">
-        <v>466.2055394409265</v>
+        <v>617.6368043798143</v>
       </c>
       <c r="D10" t="n">
-        <v>302.8887665676972</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E10" t="n">
-        <v>136.6805607205508</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F10" t="n">
-        <v>136.6805607205508</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1428.000280878674</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1572.103139966016</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1572.103139966016</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1572.103139966016</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1297.250736138529</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="X10" t="n">
-        <v>1054.686839584334</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="Y10" t="n">
-        <v>828.3440712740762</v>
+        <v>976.1595596926588</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2484.152505454249</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>787.9925577384986</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>1684.985148555618</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>2581.977739372737</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N11" t="n">
-        <v>3478.970330189856</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O11" t="n">
-        <v>3478.970330189856</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P11" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3519.845194023117</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3261.490284619529</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2904.000869745779</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2904.000869745779</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2904.000869745779</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2904.000869745779</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>934.6666656109302</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L12" t="n">
-        <v>934.6666656109302</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M12" t="n">
-        <v>984.1792895263902</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N12" t="n">
-        <v>1881.171880343509</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="O12" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6527437915615</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="C13" t="n">
-        <v>696.6801806704775</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D13" t="n">
-        <v>533.3634077972482</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E13" t="n">
-        <v>367.1552019501017</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F13" t="n">
-        <v>367.1552019501017</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>200.8982322443339</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>2082.762229695263</v>
+        <v>2083.824490220837</v>
       </c>
       <c r="U13" t="n">
-        <v>1802.577781195567</v>
+        <v>1803.640041721141</v>
       </c>
       <c r="V13" t="n">
-        <v>1802.577781195567</v>
+        <v>1803.640041721141</v>
       </c>
       <c r="W13" t="n">
-        <v>1527.72537736808</v>
+        <v>1528.787637893654</v>
       </c>
       <c r="X13" t="n">
-        <v>1285.161480813885</v>
+        <v>1286.223741339459</v>
       </c>
       <c r="Y13" t="n">
-        <v>1058.818712503627</v>
+        <v>1059.880973029201</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1049.778315921867</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1049.778315921867</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1049.778315921867</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>623.8013760697248</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>198.677194259125</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.596016555394</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2047.588607372513</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2944.581198189632</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>2944.581198189632</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3298.91962306775</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3040.564713664163</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2286.68394909076</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>1874.963950258507</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1469.626680213397</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>934.6666656109302</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>934.6666656109302</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>934.6666656109302</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.954853220308</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="O15" t="n">
-        <v>1082.954853220308</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P15" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.665372287236</v>
+        <v>776.7012749360533</v>
       </c>
       <c r="C16" t="n">
-        <v>983.6928091661524</v>
+        <v>776.7012749360533</v>
       </c>
       <c r="D16" t="n">
-        <v>820.3760362929231</v>
+        <v>776.7012749360533</v>
       </c>
       <c r="E16" t="n">
-        <v>654.1678304457766</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>482.306056220337</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>316.0490865145692</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.897277176128</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.897277176128</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.590409691242</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.738005863755</v>
+        <v>1435.773908512572</v>
       </c>
       <c r="X16" t="n">
-        <v>1572.17410930956</v>
+        <v>1193.210011958377</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.831340999302</v>
+        <v>966.867243648119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
@@ -5504,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251595</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409523</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5592,19 +5594,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.9588572096895</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C19" t="n">
-        <v>683.9862940886055</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D19" t="n">
-        <v>683.9862940886055</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886055</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631659</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573981</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655525</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5698,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1589.056897064296</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1515.031490786208</v>
+        <v>1268.030335748478</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.467594232013</v>
+        <v>1268.030335748478</v>
       </c>
       <c r="Y19" t="n">
-        <v>1046.124825921755</v>
+        <v>1041.68756743822</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5750,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O20" t="n">
-        <v>4090.576687723259</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787242</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5838,19 +5840,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>939.4897558901635</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>939.4897558901635</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>608.0932463474637</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C22" t="n">
-        <v>436.1206832263797</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="D22" t="n">
-        <v>368.3282513713204</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="E22" t="n">
-        <v>368.3282513713204</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F22" t="n">
-        <v>368.3282513713204</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655525</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5944,16 +5946,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1542.018283751469</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1267.165879923982</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1024.601983369787</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>798.2592150595294</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5999,13 +6001,13 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3114.325629236558</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>4362.434577686964</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.604840768015</v>
+        <v>825.2669071411556</v>
       </c>
       <c r="C25" t="n">
-        <v>481.632277646931</v>
+        <v>825.2669071411556</v>
       </c>
       <c r="D25" t="n">
-        <v>481.632277646931</v>
+        <v>661.9501342679263</v>
       </c>
       <c r="E25" t="n">
-        <v>315.4240717997845</v>
+        <v>495.7419284207798</v>
       </c>
       <c r="F25" t="n">
-        <v>143.562297574345</v>
+        <v>495.7419284207798</v>
       </c>
       <c r="G25" t="n">
-        <v>143.562297574345</v>
+        <v>329.4849587150119</v>
       </c>
       <c r="H25" t="n">
-        <v>143.562297574345</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>1869.241345563992</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>1587.529878172021</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="W25" t="n">
-        <v>1312.677474344533</v>
+        <v>1484.339540717674</v>
       </c>
       <c r="X25" t="n">
-        <v>1070.113577790339</v>
+        <v>1241.775644163479</v>
       </c>
       <c r="Y25" t="n">
-        <v>843.7708094800807</v>
+        <v>1015.432875853221</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6260,16 +6262,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>964.4851292537592</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1680.682846292257</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1040.823111613724</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8505484926402</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751469</v>
+        <v>1467.023170322539</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.165879923982</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="X28" t="n">
-        <v>1267.165879923982</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y28" t="n">
-        <v>1040.823111613724</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,40 +6451,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3385.144476738222</v>
+        <v>1020.040622710153</v>
       </c>
       <c r="C31" t="n">
-        <v>3264.247621598674</v>
+        <v>848.0680595890694</v>
       </c>
       <c r="D31" t="n">
-        <v>3100.930848725445</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>1953.965660114159</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>1679.113256286672</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450287</v>
+        <v>1436.549359732477</v>
       </c>
       <c r="Y31" t="n">
-        <v>3575.310445450287</v>
+        <v>1210.206591422219</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,25 +6782,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1748.774177950213</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.774177950213</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O33" t="n">
-        <v>1748.774177950213</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1022.167063056836</v>
+        <v>3436.220184719758</v>
       </c>
       <c r="C34" t="n">
-        <v>850.1944999357522</v>
+        <v>3264.247621598674</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>3100.930848725445</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5070.663129442909</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>4900.528081962044</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>4657.188734187944</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>4377.004285688248</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>4095.292818296277</v>
       </c>
       <c r="W34" t="n">
-        <v>1260.306816359498</v>
+        <v>4095.292818296277</v>
       </c>
       <c r="X34" t="n">
-        <v>1022.167063056836</v>
+        <v>3852.728921742082</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.167063056836</v>
+        <v>3626.386153431824</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690843</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P35" t="n">
         <v>4541.493855905342</v>
@@ -6971,10 +6973,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
@@ -7020,22 +7022,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>655.1318596602905</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="C37" t="n">
-        <v>483.1592965392065</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="D37" t="n">
-        <v>368.279487512699</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1589.056897064296</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1314.204493236809</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1071.640596682614</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>845.2978283723562</v>
+        <v>683.9862940886057</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3578.14552899051</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>3578.14552899051</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L39" t="n">
-        <v>4414.944337073416</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M39" t="n">
-        <v>4650.990193428648</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="N39" t="n">
-        <v>4650.990193428648</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="O39" t="n">
-        <v>4650.990193428648</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P39" t="n">
-        <v>4650.990193428648</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.7245472657505</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>431.8276921262043</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D40" t="n">
-        <v>268.510919252975</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="E40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.8905159778161</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1971.202878926091</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1544.302148939391</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1121.009528124391</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1121.009528124391</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>695.8853463137916</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G41" t="n">
-        <v>291.5462839032402</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.0877085798951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>933.2347156986193</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1830.227306515739</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M41" t="n">
-        <v>2727.219897332859</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N41" t="n">
-        <v>3624.212488149979</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O41" t="n">
-        <v>3624.212488149979</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P41" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149979</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3403.286917194612</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3144.932007791024</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2787.442592917274</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2391.051243217621</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2391.051243217621</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2391.051243217621</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.9308927249114</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>79.9308927249114</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>79.9308927249114</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L42" t="n">
-        <v>79.9308927249114</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M42" t="n">
-        <v>79.9308927249114</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="N42" t="n">
-        <v>976.923483542031</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P42" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>845.6608979482444</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>673.6883348271604</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>510.3715619539311</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>510.3715619539311</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>338.5097877284915</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>172.2528180227236</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2230.680882552716</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2060.545835071851</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>1817.206487297751</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U43" t="n">
-        <v>1537.022038798055</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="V43" t="n">
-        <v>1537.022038798055</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.169634970568</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X43" t="n">
-        <v>1262.169634970568</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1035.82686666031</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2083.982304433787</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C44" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076618</v>
       </c>
       <c r="D44" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409476</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988759</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>152.0180135075252</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>867.5263214830243</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L44" t="n">
-        <v>1764.518912300144</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M44" t="n">
-        <v>1764.518912300144</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N44" t="n">
-        <v>2661.511503117264</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3506.656153268076</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>3506.656153268076</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268076</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023119</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3507.937977243031</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3249.583067839443</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2892.093652965693</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2495.70230326604</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2083.982304433787</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2083.982304433787</v>
+        <v>2960.549862354848</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299957</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>344.1817390425907</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>934.6666656109303</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L45" t="n">
-        <v>934.6666656109303</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M45" t="n">
-        <v>934.6666656109303</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N45" t="n">
-        <v>1335.007093396027</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O45" t="n">
-        <v>1335.007093396027</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>1335.007093396027</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2081.35292154148</v>
+        <v>1049.48960530868</v>
       </c>
       <c r="C46" t="n">
-        <v>1909.380358420396</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D46" t="n">
-        <v>1909.380358420396</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E46" t="n">
-        <v>1859.22607171386</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F46" t="n">
-        <v>1687.36429748842</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G46" t="n">
-        <v>1687.36429748842</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H46" t="n">
-        <v>1543.568028996574</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>1443.79946073685</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>1501.290788961008</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>1727.818390166846</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>2082.507711461266</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>2473.693506431517</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>2851.185017307553</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>3206.613145987316</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>3497.212357909217</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>3624.212488149979</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>3577.173874837152</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>3577.173874837152</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>3577.173874837152</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U46" t="n">
-        <v>3296.989426337456</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V46" t="n">
-        <v>3015.277958945485</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W46" t="n">
-        <v>2740.425555117998</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X46" t="n">
-        <v>2497.861658563803</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="Y46" t="n">
-        <v>2271.518890253545</v>
+        <v>1049.48960530868</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>501.3089991395928</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>521.2079540534</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>521.0563139884142</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>480.3328471358044</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8060,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>465.1567191589064</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>506.2917778681978</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>398.7239096569988</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761904</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>505.5475323587969</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8146,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>115.1762876285928</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.31013128815742</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>480.0371081600191</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8295,25 +8297,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>101.1178171425367</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8377,10 +8379,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M7" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>353.4336722031772</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>84.50867025038121</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8526,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>464.1005135391146</v>
+        <v>453.880834648017</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8620,10 +8622,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>385.5915703929544</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
         <v>315.9153581548562</v>
@@ -8693,19 +8695,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>65.54083966701687</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8763,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>73.1095319420856</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>927.3961502510358</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>659.4413150363887</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,25 +8932,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>724.0716142954277</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9005,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>145.3082203566077</v>
       </c>
       <c r="N15" t="n">
-        <v>171.1290763038225</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>745.2028786174529</v>
@@ -9167,7 +9169,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9176,13 +9178,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>238.1216346371723</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>322.1890847023786</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9240,7 +9242,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9252,10 +9254,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>675.3923850715689</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9404,7 +9406,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9413,13 +9415,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>611.7910214708209</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>440.9328573103608</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>868.740257769232</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,16 +9649,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>763.5414113871921</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9726,7 +9728,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574439</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9896,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>129.1350140843319</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>255.3808743436059</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>517.6546514635598</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>100.0581876036193</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,28 +10430,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>198.0542523912748</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>185.6255543726317</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>360.2906876703342</v>
       </c>
       <c r="L35" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10668,25 +10670,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>574.3586489309258</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10832,16 +10834,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>998.750394705596</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10902,28 +10904,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>261.5269384469058</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>51.13865392926243</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>538.9433958642278</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701175</v>
+        <v>443.1202251383856</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369264</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11133,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>927.3961502510363</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>853.7063207492679</v>
+        <v>647.5880747053628</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.757094581067</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>659.2874778330922</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701175</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11385,13 +11387,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>425.7272987035383</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>26.46322367657535</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>113.9993457275329</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>44.00361620422044</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>309.9125592792451</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>72.75829274970188</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>198.818727573905</v>
+        <v>64.74823979854702</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>90.77286840263298</v>
       </c>
       <c r="D22" t="n">
-        <v>94.56909760798828</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24139,13 +24141,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>16.2187655279624</v>
       </c>
       <c r="I25" t="n">
-        <v>57.92389425029553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>44.44323449605101</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>36.21549341735368</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>50.56495090172126</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.01789851058606</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.540411739665473</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>4.379901819017761</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>47.95259420825461</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>165.7641609568371</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>50.56495090172238</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>59.64236734312286</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>78.01828094186729</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.57399650252088</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>6.759898196019265</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9281706335263</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>35.86340573804478</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8933799492044</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>452132.3400519228</v>
+        <v>452591.3037423157</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>452132.3400519228</v>
+        <v>454077.3274818147</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>452132.3400519228</v>
+        <v>454077.3274818147</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357925.420830595</v>
+        <v>450155.0291490536</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357925.4208305948</v>
+        <v>450155.0291490535</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>450155.0291490536</v>
+        <v>450155.0291490535</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>450155.0291490535</v>
+        <v>450155.0291490537</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>450155.0291490535</v>
+        <v>450155.0291490536</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>450155.0291490536</v>
+        <v>450155.0291490535</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>450155.0291490534</v>
+        <v>450155.0291490536</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>450155.0291490536</v>
+        <v>450155.0291490534</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>450155.0291490535</v>
+        <v>450155.0291490536</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357925.4208305951</v>
+        <v>450155.0291490535</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357925.420830595</v>
+        <v>450155.0291490535</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>582442.6680111635</v>
+        <v>582442.6680111634</v>
       </c>
       <c r="C2" t="n">
-        <v>582442.6680111632</v>
+        <v>582442.668011163</v>
       </c>
       <c r="D2" t="n">
-        <v>582442.668011163</v>
+        <v>582442.6680111631</v>
       </c>
       <c r="E2" t="n">
-        <v>446889.5069008819</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="F2" t="n">
-        <v>446889.5069008822</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="G2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374475</v>
       </c>
       <c r="H2" t="n">
+        <v>562030.4031374475</v>
+      </c>
+      <c r="I2" t="n">
+        <v>562030.4031374472</v>
+      </c>
+      <c r="J2" t="n">
+        <v>562030.4031374475</v>
+      </c>
+      <c r="K2" t="n">
         <v>562030.4031374473</v>
-      </c>
-      <c r="I2" t="n">
-        <v>562030.4031374473</v>
-      </c>
-      <c r="J2" t="n">
-        <v>562030.403137447</v>
-      </c>
-      <c r="K2" t="n">
-        <v>562030.4031374475</v>
       </c>
       <c r="L2" t="n">
         <v>562030.4031374473</v>
       </c>
       <c r="M2" t="n">
+        <v>562030.4031374471</v>
+      </c>
+      <c r="N2" t="n">
+        <v>562030.403137447</v>
+      </c>
+      <c r="O2" t="n">
         <v>562030.4031374474</v>
       </c>
-      <c r="N2" t="n">
-        <v>562030.4031374474</v>
-      </c>
-      <c r="O2" t="n">
-        <v>446889.5069008822</v>
-      </c>
       <c r="P2" t="n">
-        <v>446889.5069008819</v>
+        <v>562030.4031374472</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361215</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701974</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176510.6008550963</v>
+        <v>171848.3668116665</v>
       </c>
       <c r="C4" t="n">
-        <v>176510.6008550963</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
-        <v>176510.6008550963</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>23382.13283064559</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="F4" t="n">
-        <v>23382.1328306456</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="G4" t="n">
+        <v>29432.28705591145</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29432.28705591146</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29432.28705591151</v>
+      </c>
+      <c r="J4" t="n">
         <v>29432.2870559115</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29432.2870559115</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29432.2870559115</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29432.28705591146</v>
       </c>
       <c r="K4" t="n">
         <v>29432.2870559115</v>
@@ -26448,16 +26450,16 @@
         <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591145</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>23382.1328306456</v>
+        <v>29432.28705591145</v>
       </c>
       <c r="P4" t="n">
-        <v>23382.13283064561</v>
+        <v>29432.28705591137</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>189625.6322677184</v>
+        <v>185428.3823077443</v>
       </c>
       <c r="C6" t="n">
-        <v>344251.3528858386</v>
+        <v>334836.5074943874</v>
       </c>
       <c r="D6" t="n">
-        <v>344251.3528858385</v>
+        <v>358243.3411679996</v>
       </c>
       <c r="E6" t="n">
-        <v>235655.6762407548</v>
+        <v>239108.6973364655</v>
       </c>
       <c r="F6" t="n">
-        <v>368419.344250357</v>
+        <v>454848.0538931061</v>
       </c>
       <c r="G6" t="n">
-        <v>352688.1337987966</v>
+        <v>454848.0538931064</v>
       </c>
       <c r="H6" t="n">
-        <v>454848.0538931062</v>
+        <v>454848.0538931064</v>
       </c>
       <c r="I6" t="n">
         <v>454848.053893106</v>
       </c>
       <c r="J6" t="n">
-        <v>334125.5369503489</v>
+        <v>328270.7853128175</v>
       </c>
       <c r="K6" t="n">
-        <v>454848.0538931063</v>
+        <v>436201.4535360864</v>
       </c>
       <c r="L6" t="n">
         <v>454848.0538931061</v>
       </c>
       <c r="M6" t="n">
-        <v>344038.6937839728</v>
+        <v>274784.1824379383</v>
       </c>
       <c r="N6" t="n">
+        <v>454848.0538931058</v>
+      </c>
+      <c r="O6" t="n">
+        <v>454848.0538931063</v>
+      </c>
+      <c r="P6" t="n">
         <v>454848.0538931062</v>
-      </c>
-      <c r="O6" t="n">
-        <v>368419.3442503569</v>
-      </c>
-      <c r="P6" t="n">
-        <v>368419.3442503567</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353622</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353622</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>66.66693461922381</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>287.050728360125</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>88.90014101544821</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27549,13 +27551,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,13 +27593,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>218.3600466668033</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,22 +27618,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>42.2909236790166</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>123.9050765298281</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>115.1557639755913</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.22754364815</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27855,19 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>80.80383915666047</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>229.0153817891225</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3.579618755102103</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>185.1463602375463</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29284,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>462.9969567069699</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>375.6271291446708</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34866,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>94.4273866529924</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.69056852337247</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>442.7574853255731</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>77.9459274203145</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35097,10 +35099,10 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>324.0137127175907</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35246,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>442.7574853255729</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,10 +35342,10 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>364.842669417354</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
         <v>293.5345574968697</v>
@@ -35413,19 +35415,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>27.96547785678557</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>50.01275142975761</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>906.0531220374942</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>636.2694253141665</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>686.4962524851965</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>122.2114398442797</v>
       </c>
       <c r="N15" t="n">
-        <v>149.7860480902808</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>723.4320374126243</v>
@@ -35887,7 +35889,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35896,13 +35898,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>200.7306752811483</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35972,10 +35974,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>654.0493568580273</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36133,13 +36135,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>574.2156596605895</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>845.643477256904</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,16 +36369,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>726.1504520311679</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36446,7 +36448,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439022</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36616,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>94.10236418953542</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.6338360546274</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>480.2233885641281</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>62.48282579338804</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>324.5260868755249</v>
       </c>
       <c r="L35" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37552,16 +37554,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>961.47077187115</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37622,28 +37624,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>238.4301579345778</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>27.96676420704021</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,22 +37782,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>503.1787950694184</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374946</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374946</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374946</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>906.0531220374946</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>830.5344310270457</v>
+        <v>624.4161849831406</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>80.33713509548045</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>623.5228770382829</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374946</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374946</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3079945.263314031</v>
+        <v>3079248.60210894</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954497</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114758</v>
+        <v>612367.9462114759</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>175.8993704642137</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>66.86379236488796</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.36416800949678</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>180.6677175881552</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>361.3324826687163</v>
       </c>
       <c r="G5" t="n">
-        <v>358.0047481074292</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1068,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>163.7385887424601</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>253.6542084583254</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>22.8154538153767</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>22.51978202893052</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.6846902698429</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1299,10 +1299,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074653</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1378,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>96.18008851982863</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1545,7 +1545,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>196.9023380921386</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1615,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1767,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>91.7878310389731</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>77.47116360343394</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2010,7 +2010,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>56.40298632206111</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>207.3556399906651</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2095,7 +2095,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>79.47996908724016</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>221.3770995864477</v>
       </c>
     </row>
     <row r="23">
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>126.1395402789647</v>
+        <v>71.11176176057803</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>242.6788593006977</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>228.806007833761</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>96.66570663391093</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2964,10 +2964,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>106.2107844952006</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3189,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>34.02740555137132</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.02781544003311</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3331,7 +3331,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>140.7881002138958</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3477,13 +3477,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>58.31517967031825</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>104.9037564455521</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>209.7612727945905</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3751,16 +3751,16 @@
         <v>421.7171704536211</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3900,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3915,7 +3915,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>265.3439815931928</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>88.0013102522784</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864477</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446566</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>134.3894317518284</v>
+        <v>136.4662240373194</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>563.0709252622232</v>
+        <v>705.8501857877284</v>
       </c>
       <c r="C2" t="n">
-        <v>540.2105993159274</v>
+        <v>278.9494558010285</v>
       </c>
       <c r="D2" t="n">
-        <v>520.9583825413317</v>
+        <v>259.6972390264328</v>
       </c>
       <c r="E2" t="n">
-        <v>94.98144268918925</v>
+        <v>237.7607032146944</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899356</v>
+        <v>216.6769254444987</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884625</v>
+        <v>216.3782670743514</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884625</v>
+        <v>38.7021352923174</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231746</v>
+        <v>38.7021352923174</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>38.7021352923174</v>
       </c>
       <c r="K2" t="n">
-        <v>401.305594109213</v>
+        <v>517.6410595347452</v>
       </c>
       <c r="L2" t="n">
-        <v>859.6725812491131</v>
+        <v>517.6410595347452</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.611505491542</v>
+        <v>517.6410595347452</v>
       </c>
       <c r="N2" t="n">
-        <v>1817.55042973397</v>
+        <v>977.2289161310144</v>
       </c>
       <c r="O2" t="n">
-        <v>1817.55042973397</v>
+        <v>1456.167840373442</v>
       </c>
       <c r="P2" t="n">
-        <v>1817.55042973397</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.55042973397</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="T2" t="n">
-        <v>1714.181193660506</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="U2" t="n">
-        <v>1455.826284256918</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.287100049961</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="W2" t="n">
-        <v>991.8957503503076</v>
+        <v>1538.715414916217</v>
       </c>
       <c r="X2" t="n">
-        <v>984.2161555584589</v>
+        <v>1531.035820124368</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.9192895537533</v>
+        <v>1125.698550079258</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668182</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.036721584323</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.196763099608</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725452</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554494</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730534</v>
+        <v>92.07822853000781</v>
       </c>
       <c r="H3" t="n">
-        <v>126.419134035363</v>
+        <v>38.7021352923174</v>
       </c>
       <c r="I3" t="n">
-        <v>126.419134035363</v>
+        <v>46.14877825422924</v>
       </c>
       <c r="J3" t="n">
-        <v>126.419134035363</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="K3" t="n">
-        <v>126.419134035363</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="L3" t="n">
-        <v>605.3580582777915</v>
+        <v>796.7851917762481</v>
       </c>
       <c r="M3" t="n">
-        <v>977.2289161310157</v>
+        <v>822.2860546829169</v>
       </c>
       <c r="N3" t="n">
-        <v>977.2289161310157</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="O3" t="n">
-        <v>1456.167840373444</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
-        <v>1935.106764615873</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1935.106764615873</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615873</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177127</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474806</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394442</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533708</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366926</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335886</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.469634486881</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7553734899309</v>
+        <v>811.8300196189408</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7553734899309</v>
+        <v>639.8574564978568</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7553734899309</v>
+        <v>476.5406836246275</v>
       </c>
       <c r="E4" t="n">
-        <v>348.7553734899309</v>
+        <v>310.332477777481</v>
       </c>
       <c r="F4" t="n">
-        <v>348.7553734899309</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="G4" t="n">
-        <v>182.4984037841631</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231746</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231746</v>
+        <v>38.7021352923174</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647548</v>
+        <v>96.19346351647542</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167335</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
         <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773447</v>
+        <v>1162.079293773444</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.50742245321</v>
+        <v>1517.507422453207</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375111</v>
+        <v>1808.106634375108</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303046</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822181</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.593756048081</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="U4" t="n">
-        <v>1474.593756048081</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="V4" t="n">
-        <v>1192.88228865611</v>
+        <v>1653.395297223899</v>
       </c>
       <c r="W4" t="n">
-        <v>918.0298848286229</v>
+        <v>1470.902653195459</v>
       </c>
       <c r="X4" t="n">
-        <v>675.465988274428</v>
+        <v>1228.338756641264</v>
       </c>
       <c r="Y4" t="n">
-        <v>449.1232199641701</v>
+        <v>1001.995988331006</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1738.270122414086</v>
+        <v>912.7655429749336</v>
       </c>
       <c r="C5" t="n">
-        <v>1311.369392427386</v>
+        <v>889.9052170286378</v>
       </c>
       <c r="D5" t="n">
-        <v>888.0767716123864</v>
+        <v>870.6530002540421</v>
       </c>
       <c r="E5" t="n">
-        <v>866.140235800648</v>
+        <v>444.6760604018997</v>
       </c>
       <c r="F5" t="n">
-        <v>441.0160539900482</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
         <v>79.39509630577632</v>
@@ -4570,22 +4570,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>667.4947029893171</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>1763.054543461766</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W5" t="n">
-        <v>1763.054543461766</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="X5" t="n">
-        <v>1755.374948669918</v>
+        <v>1737.951177311573</v>
       </c>
       <c r="Y5" t="n">
-        <v>1754.078082665212</v>
+        <v>1332.613907266464</v>
       </c>
     </row>
     <row r="6">
@@ -4655,19 +4655,19 @@
         <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>817.6261093758709</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>645.6535462547869</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>482.3367733815576</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>316.1285675344111</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4731,46 +4731,46 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
+        <v>2224.911252462376</v>
+      </c>
+      <c r="R7" t="n">
         <v>2224.911252462377</v>
       </c>
-      <c r="R7" t="n">
-        <v>2177.87263914955</v>
-      </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1318.821281513616</v>
+        <v>1943.199785070405</v>
       </c>
       <c r="W7" t="n">
-        <v>1043.968877686129</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1043.968877686129</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>817.6261093758709</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>972.9074190595575</v>
+        <v>591.614269593831</v>
       </c>
       <c r="C8" t="n">
-        <v>546.0066890728575</v>
+        <v>568.7539436475352</v>
       </c>
       <c r="D8" t="n">
-        <v>526.7544722982618</v>
+        <v>549.5017268729395</v>
       </c>
       <c r="E8" t="n">
-        <v>100.7775324461193</v>
+        <v>527.5651910612011</v>
       </c>
       <c r="F8" t="n">
-        <v>79.69375467592363</v>
+        <v>102.4410092506013</v>
       </c>
       <c r="G8" t="n">
         <v>79.39509630577632</v>
@@ -4807,22 +4807,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>455.3583126271592</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2202.163997887699</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2202.163997887699</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2202.163997887699</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2202.163997887699</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1805.772648188046</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X8" t="n">
-        <v>1394.052649355793</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y8" t="n">
-        <v>988.7153793106835</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>874.3078922751886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>1424.973427259627</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>1853.185855629757</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>789.6093675008983</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>617.6368043798143</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>454.3200315065851</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>454.3200315065851</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1202.502328002917</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>1202.502328002917</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.1595596926588</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
@@ -5041,28 +5041,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N11" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O11" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P11" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5083,10 +5083,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1199.06430284061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1828.971033901635</v>
+        <v>1861.413050227143</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1861.413050227143</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1861.413050227143</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.7150043171358</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C13" t="n">
-        <v>869.7150043171358</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D13" t="n">
-        <v>706.3982314439065</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E13" t="n">
-        <v>540.1900255967601</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
         <v>202.0712816655526</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2083.824490220837</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U13" t="n">
-        <v>1803.640041721141</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V13" t="n">
-        <v>1803.640041721141</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W13" t="n">
-        <v>1528.787637893654</v>
+        <v>1508.978208805807</v>
       </c>
       <c r="X13" t="n">
-        <v>1286.223741339459</v>
+        <v>1508.978208805807</v>
       </c>
       <c r="Y13" t="n">
-        <v>1059.880973029201</v>
+        <v>1282.635440495549</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
@@ -5287,13 +5287,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P14" t="n">
         <v>4997.579335409525</v>
@@ -5317,13 +5317,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M15" t="n">
-        <v>223.2920388516654</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N15" t="n">
-        <v>223.2920388516654</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O15" t="n">
-        <v>1112.773316863137</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>776.7012749360533</v>
+        <v>919.4582979645735</v>
       </c>
       <c r="C16" t="n">
-        <v>776.7012749360533</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="D16" t="n">
-        <v>776.7012749360533</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886057</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5469,19 +5469,19 @@
         <v>1992.33777973203</v>
       </c>
       <c r="U16" t="n">
-        <v>1992.33777973203</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V16" t="n">
-        <v>1710.626312340059</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W16" t="n">
-        <v>1435.773908512572</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="X16" t="n">
-        <v>1193.210011958377</v>
+        <v>1187.877967286168</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.867243648119</v>
+        <v>1109.624266676639</v>
       </c>
     </row>
     <row r="17">
@@ -5521,40 +5521,40 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4006.096290254794</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4714.375569412722</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N18" t="n">
-        <v>1191.617659878699</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.68756743822</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C19" t="n">
-        <v>869.7150043171358</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D19" t="n">
-        <v>706.3982314439065</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E19" t="n">
-        <v>540.1900255967601</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>2008.569366568638</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.48047715319</v>
+        <v>1726.857899176666</v>
       </c>
       <c r="W19" t="n">
-        <v>1268.030335748478</v>
+        <v>1452.005495349179</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.030335748478</v>
+        <v>1209.441598794985</v>
       </c>
       <c r="Y19" t="n">
-        <v>1041.68756743822</v>
+        <v>1209.441598794985</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5755,25 +5755,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>2184.700581617281</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4714.375569412722</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5837,16 +5837,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554925</v>
+        <v>847.303066961835</v>
       </c>
       <c r="C22" t="n">
-        <v>246.0989818976742</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D22" t="n">
-        <v>246.0989818976742</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E22" t="n">
-        <v>246.0989818976742</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>246.0989818976742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5940,22 +5940,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1261.082267579403</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>1037.469035673901</v>
       </c>
     </row>
     <row r="23">
@@ -5995,19 +5995,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6065,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>825.2669071411556</v>
+        <v>778.2282938283288</v>
       </c>
       <c r="C25" t="n">
-        <v>825.2669071411556</v>
+        <v>778.2282938283288</v>
       </c>
       <c r="D25" t="n">
-        <v>661.9501342679263</v>
+        <v>778.2282938283288</v>
       </c>
       <c r="E25" t="n">
-        <v>495.7419284207798</v>
+        <v>612.0200879811823</v>
       </c>
       <c r="F25" t="n">
-        <v>495.7419284207798</v>
+        <v>440.1583137557427</v>
       </c>
       <c r="G25" t="n">
-        <v>329.4849587150119</v>
+        <v>273.9013440499749</v>
       </c>
       <c r="H25" t="n">
         <v>202.0712816655526</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>1759.191944545161</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="W25" t="n">
-        <v>1484.339540717674</v>
+        <v>1437.300927404847</v>
       </c>
       <c r="X25" t="n">
-        <v>1241.775644163479</v>
+        <v>1194.737030850652</v>
       </c>
       <c r="Y25" t="n">
-        <v>1015.432875853221</v>
+        <v>968.3942625403945</v>
       </c>
     </row>
     <row r="26">
@@ -6229,16 +6229,16 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
         <v>3833.214576747414</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>775.6620294727279</v>
+        <v>540.252050633783</v>
       </c>
       <c r="C28" t="n">
-        <v>603.6894663516439</v>
+        <v>368.279487512699</v>
       </c>
       <c r="D28" t="n">
-        <v>440.3726934784146</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6420,16 +6420,16 @@
         <v>1712.153331232334</v>
       </c>
       <c r="V28" t="n">
-        <v>1467.023170322539</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W28" t="n">
-        <v>1192.170766495052</v>
+        <v>1199.324684210301</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.170766495052</v>
+        <v>956.7607876561067</v>
       </c>
       <c r="Y28" t="n">
-        <v>965.8279981847936</v>
+        <v>730.4180193458487</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,25 +6539,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1020.040622710153</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C31" t="n">
-        <v>848.0680595890694</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>2235.67712750613</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1953.965660114159</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="W31" t="n">
-        <v>1679.113256286672</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X31" t="n">
-        <v>1436.549359732477</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y31" t="n">
-        <v>1210.206591422219</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M33" t="n">
-        <v>275.5106105659859</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N33" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O33" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3436.220184719758</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>3264.247621598674</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="D34" t="n">
-        <v>3100.930848725445</v>
+        <v>380.2386668759551</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5070.663129442909</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4900.528081962044</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>4657.188734187944</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>4377.004285688248</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>4095.292818296277</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>4095.292818296277</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>3852.728921742082</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>3626.386153431824</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6937,46 +6937,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>786.1869982294937</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L35" t="n">
-        <v>1715.81204584877</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M35" t="n">
-        <v>2720.098147267829</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3696.34920575453</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O35" t="n">
-        <v>4541.493855905342</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
@@ -7022,22 +7022,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>648.6278400003578</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>683.9862940886057</v>
+        <v>851.4325941215639</v>
       </c>
       <c r="C37" t="n">
-        <v>683.9862940886057</v>
+        <v>679.4600310004798</v>
       </c>
       <c r="D37" t="n">
-        <v>683.9862940886057</v>
+        <v>516.1432581272505</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7125,22 +7125,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1510.505227698082</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1267.941331143888</v>
       </c>
       <c r="Y37" t="n">
-        <v>683.9862940886057</v>
+        <v>1041.59856283363</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1031.927761025105</v>
+        <v>2101.340160059445</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.213862444163</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7253,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>1801.283937336665</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>1801.283937336665</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N39" t="n">
-        <v>1801.283937336665</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5554397491844</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>371.5828766281004</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>208.2661037548711</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325703</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="X40" t="n">
-        <v>960.064176771508</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.72140846125</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7393,64 +7393,64 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4406.8563911335</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
@@ -7490,28 +7490,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>1210.799010768326</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.799010768326</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N42" t="n">
-        <v>1210.799010768326</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O42" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H43" t="n">
         <v>202.0712816655526</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>2112.580693338092</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>2112.580693338092</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>1601.992572952389</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y43" t="n">
-        <v>1375.649804642131</v>
+        <v>896.5642001559722</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063318</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076618</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261618</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409476</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988759</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354848</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>648.6278400003578</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1049.48960530868</v>
+        <v>569.7211267295927</v>
       </c>
       <c r="C46" t="n">
-        <v>913.7427045492574</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="D46" t="n">
-        <v>750.4259316760281</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E46" t="n">
-        <v>584.2177258288816</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F46" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G46" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
         <v>102.3027134058285</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U46" t="n">
-        <v>1832.396244838396</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V46" t="n">
-        <v>1550.684777446425</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.832373618938</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.832373618938</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y46" t="n">
-        <v>1049.48960530868</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487768</v>
       </c>
       <c r="L2" t="n">
-        <v>501.3089991395928</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540534</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884142</v>
+        <v>501.5097810124958</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099915</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641987</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681978</v>
+        <v>506.291777868197</v>
       </c>
       <c r="M3" t="n">
-        <v>398.7239096569988</v>
+        <v>48.85522789280148</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675092</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761904</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587969</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>115.1762876285928</v>
+        <v>115.1762876285898</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8218,10 +8218,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>108.8261593358512</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8233,10 +8233,10 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8303,10 +8303,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>460.1807970851423</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>541.2748327507026</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
@@ -8318,7 +8318,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.190801607238</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8455,25 +8455,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>84.50867025038121</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>453.880834648017</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,22 +8698,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,10 +8780,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>659.4413150363887</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8792,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>73.75099389838205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,7 +8944,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9014,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>145.3082203566077</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>375.8994699623531</v>
       </c>
       <c r="P15" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,10 +9169,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>322.1890847023786</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9254,16 +9254,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>749.810964578424</v>
+        <v>375.8994699623531</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9403,10 +9403,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9421,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>440.9328573103608</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9643,10 +9643,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9725,16 +9725,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>844.7332849752614</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9877,19 +9877,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,28 +10187,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>375.1268140734642</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>198.0542523912748</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>360.2906876703342</v>
+        <v>224.2932485068565</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>574.3586489309258</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10679,7 +10679,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
@@ -10688,7 +10688,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>968.5400018884028</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>998.750394705596</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>51.13865392926243</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>443.1202251383856</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11074,16 +11074,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086323</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11153,16 +11153,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>647.5880747053628</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>659.2874778330922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11390,7 +11390,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>567.4935903612297</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
@@ -11399,7 +11399,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>92.08422050511636</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>44.00361620422044</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>72.75829274970188</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>146.6081770237215</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>220.9796176926376</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>64.74823979854702</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>90.77286840263298</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>2.702241040707662</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>16.2187655279624</v>
+        <v>71.24654404634911</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24621,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>36.21549341735368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>43.29787195545111</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.01789851058606</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>172.6835682228508</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>130.5187182373037</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25092,10 +25092,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.540411739665473</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>23.75802357477917</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>59.64236734312286</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>62.34260699462163</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>6.759898196019265</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>136.078030374877</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>35.86340573804478</v>
+        <v>33.78661345255378</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>450155.0291490536</v>
+        <v>450155.0291490535</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>450155.0291490535</v>
+        <v>450155.0291490534</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>450155.0291490537</v>
+        <v>450155.0291490535</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>450155.0291490536</v>
+        <v>450155.0291490537</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>450155.0291490534</v>
+        <v>450155.0291490536</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>450155.0291490536</v>
+        <v>450155.0291490535</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>450155.0291490535</v>
+        <v>450155.0291490536</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>582442.6680111634</v>
+        <v>582442.6680111629</v>
       </c>
       <c r="C2" t="n">
+        <v>582442.6680111631</v>
+      </c>
+      <c r="D2" t="n">
         <v>582442.668011163</v>
       </c>
-      <c r="D2" t="n">
-        <v>582442.6680111631</v>
-      </c>
       <c r="E2" t="n">
-        <v>562030.4031374473</v>
+        <v>562030.4031374477</v>
       </c>
       <c r="F2" t="n">
-        <v>562030.4031374473</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="G2" t="n">
         <v>562030.4031374475</v>
       </c>
       <c r="H2" t="n">
+        <v>562030.4031374474</v>
+      </c>
+      <c r="I2" t="n">
+        <v>562030.4031374471</v>
+      </c>
+      <c r="J2" t="n">
+        <v>562030.4031374474</v>
+      </c>
+      <c r="K2" t="n">
         <v>562030.4031374475</v>
       </c>
-      <c r="I2" t="n">
-        <v>562030.4031374472</v>
-      </c>
-      <c r="J2" t="n">
-        <v>562030.4031374475</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>562030.4031374474</v>
+      </c>
+      <c r="M2" t="n">
         <v>562030.4031374473</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>562030.4031374474</v>
+      </c>
+      <c r="O2" t="n">
         <v>562030.4031374473</v>
-      </c>
-      <c r="M2" t="n">
-        <v>562030.4031374471</v>
-      </c>
-      <c r="N2" t="n">
-        <v>562030.403137447</v>
-      </c>
-      <c r="O2" t="n">
-        <v>562030.4031374474</v>
       </c>
       <c r="P2" t="n">
         <v>562030.4031374472</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695913</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361215</v>
+        <v>23406.83367361239</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802889</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701974</v>
+        <v>18646.60035701993</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171848.3668116665</v>
+        <v>171848.3668116667</v>
       </c>
       <c r="C4" t="n">
         <v>156753.0758057354</v>
@@ -26432,13 +26432,13 @@
         <v>29432.28705591151</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.28705591146</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.28705591146</v>
+        <v>29432.28705591147</v>
       </c>
       <c r="I4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="J4" t="n">
         <v>29432.2870559115</v>
@@ -26450,16 +26450,16 @@
         <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="P4" t="n">
-        <v>29432.28705591137</v>
+        <v>29432.2870559115</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216126</v>
+        <v>63041.22282216122</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>185428.3823077443</v>
+        <v>185428.382307744</v>
       </c>
       <c r="C6" t="n">
-        <v>334836.5074943874</v>
+        <v>334836.5074943872</v>
       </c>
       <c r="D6" t="n">
-        <v>358243.3411679996</v>
+        <v>358243.3411679994</v>
       </c>
       <c r="E6" t="n">
-        <v>239108.6973364655</v>
+        <v>239057.6666742816</v>
       </c>
       <c r="F6" t="n">
-        <v>454848.0538931061</v>
+        <v>454797.0232309219</v>
       </c>
       <c r="G6" t="n">
-        <v>454848.0538931064</v>
+        <v>454797.0232309221</v>
       </c>
       <c r="H6" t="n">
-        <v>454848.0538931064</v>
+        <v>454797.0232309219</v>
       </c>
       <c r="I6" t="n">
-        <v>454848.053893106</v>
+        <v>454797.0232309216</v>
       </c>
       <c r="J6" t="n">
-        <v>328270.7853128175</v>
+        <v>328219.7546506333</v>
       </c>
       <c r="K6" t="n">
-        <v>436201.4535360864</v>
+        <v>436150.4228739021</v>
       </c>
       <c r="L6" t="n">
-        <v>454848.0538931061</v>
+        <v>454797.0232309219</v>
       </c>
       <c r="M6" t="n">
-        <v>274784.1824379383</v>
+        <v>274733.1517757542</v>
       </c>
       <c r="N6" t="n">
-        <v>454848.0538931058</v>
+        <v>454797.023230922</v>
       </c>
       <c r="O6" t="n">
-        <v>454848.0538931063</v>
+        <v>454797.0232309219</v>
       </c>
       <c r="P6" t="n">
-        <v>454848.0538931062</v>
+        <v>454797.0232309218</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162665</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162665</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162665</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>118.9903242764918</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>287.050728360125</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.90014101544821</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>91.4361622010569</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>59.54045732377745</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>42.2909236790166</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>115.1557639755913</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>18.44967133088673</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>377.4802179710691</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>80.80383915666047</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.579618755102103</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>65.01789851058612</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="L2" t="n">
-        <v>462.9969567069699</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539682</v>
+        <v>464.2301581780497</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="M3" t="n">
-        <v>375.6271291446708</v>
+        <v>25.75844738047351</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539675</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>94.4273866529924</v>
+        <v>94.42738665298941</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34938,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>73.06155854104185</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,10 +34953,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>437.0840165728143</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
@@ -35038,7 +35038,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35175,25 +35175,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>162.8199733981322</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N9" t="n">
-        <v>432.5378064344753</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,22 +35418,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>636.2694253141665</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>50.0780745042379</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,7 +35664,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>122.2114398442797</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="P15" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>286.0644100977806</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>726.6390748562018</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36141,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>404.8081827057627</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36363,10 +36363,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>821.5613952530392</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>174.9574718789468</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>324.5260868755249</v>
+        <v>188.5286477120471</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
@@ -37408,7 +37408,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>930.2279594557799</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>961.47077187115</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>27.96676420704021</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>404.8081827057627</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37794,16 +37794,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526082</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>624.4161849831406</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>623.5228770382829</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>544.3217006390075</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
@@ -38119,7 +38119,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
